--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_project_2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F652975F-B985-4B4D-B021-E7F8C6D42B97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35F744-B8B3-4EC7-93B6-4956EC44239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF28E3FF-A2C2-4D0F-8945-EF9E294D355E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,13 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Displacement</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mybike_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,40 +112,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>125cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naked</t>
-  </si>
-  <si>
     <t>benly110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
     <t>supercub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +159,174 @@
   </si>
   <si>
     <t>fuel_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Power HP</t>
+  </si>
+  <si>
+    <t>Bore mm</t>
+  </si>
+  <si>
+    <t>Stroke mm</t>
+  </si>
+  <si>
+    <t>Torque Nm</t>
+  </si>
+  <si>
+    <t>Engine type</t>
+  </si>
+  <si>
+    <t>Fuel system</t>
+  </si>
+  <si>
+    <t>Cooling system</t>
+  </si>
+  <si>
+    <t>Gearbox</t>
+  </si>
+  <si>
+    <t>Front suspension</t>
+  </si>
+  <si>
+    <t>Rear suspension</t>
+  </si>
+  <si>
+    <t>Front tyre</t>
+  </si>
+  <si>
+    <t>Rear tyre</t>
+  </si>
+  <si>
+    <t>Front brakes</t>
+  </si>
+  <si>
+    <t>Rear brakes</t>
+  </si>
+  <si>
+    <t>Compression Ratio</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Displacement ccm</t>
+  </si>
+  <si>
+    <t>Wheelbase mm</t>
+  </si>
+  <si>
+    <t>Fuel capacity liters</t>
+  </si>
+  <si>
+    <t>Dry weight kg</t>
+  </si>
+  <si>
+    <t>Weight incl. oil, gas, etc kg</t>
+  </si>
+  <si>
+    <t>Overall height mm</t>
+  </si>
+  <si>
+    <t>Overall length mm</t>
+  </si>
+  <si>
+    <t>Overall width mm</t>
+  </si>
+  <si>
+    <t>Oil capacity liters</t>
+  </si>
+  <si>
+    <t>Seat height mm</t>
+  </si>
+  <si>
+    <t>Compression Enumerator</t>
+  </si>
+  <si>
+    <t>Fuel consumption miles/gallon</t>
+  </si>
+  <si>
+    <t>Automatic gearbox</t>
+  </si>
+  <si>
+    <t>Torque Benchmark RPM</t>
+  </si>
+  <si>
+    <t>Power Benchmark RPM</t>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+  </si>
+  <si>
+    <t>company_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_shop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labor_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coustomer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coustomer_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coustomer_company_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -431,13 +581,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,33 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,13 +642,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,62 +969,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35CA18-BD64-4060-A11D-C619DB115E48}">
-  <dimension ref="B3:U26"/>
+  <dimension ref="B3:AN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="P4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -880,343 +1051,931 @@
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="18" t="s">
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1234</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="6">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>3</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="6">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="6"/>
-      <c r="P8" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="6">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="6"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="13" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J15" s="5" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="19"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J16" s="5">
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J17" s="5">
-        <v>2</v>
-      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J18" s="5">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="6"/>
+    </row>
+    <row r="19" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="10:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J19" s="7">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
         <v>4</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="21" spans="10:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="17" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="27" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="5">
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="5">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="10:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J26" s="7">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="56" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="G57" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:J57"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="F12:AN12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
